--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid102150"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid301659"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,49 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
     <t>17/04/2024</t>
   </si>
   <si>
-    <t>0.006</t>
+    <t>19/03/2024</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>17/01/2024</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
   </si>
 </sst>
 </file>
@@ -380,6 +419,138 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid301659"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid275440"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
     <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>0.006</t>
   </si>
   <si>
     <t>17/04/2024</t>
@@ -526,18 +529,18 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +551,18 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid275440"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid969649"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
     <t>20/06/2024</t>
-  </si>
-  <si>
-    <t>0.006</t>
   </si>
   <si>
     <t>17/05/2024</t>
@@ -540,18 +543,18 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -562,7 +565,18 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid969649"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid551397"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
     <t>17/07/2024</t>
-  </si>
-  <si>
-    <t>0.006</t>
   </si>
   <si>
     <t>20/06/2024</t>
@@ -554,18 +557,18 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -576,7 +579,18 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid551397"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid563022"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,58 +26,10 @@
     <t>Gross Dividend</t>
   </si>
   <si>
-    <t>19/08/2024</t>
+    <t>18/09/2024</t>
   </si>
   <si>
     <t>0.006</t>
-  </si>
-  <si>
-    <t>17/07/2024</t>
-  </si>
-  <si>
-    <t>20/06/2024</t>
-  </si>
-  <si>
-    <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>17/04/2024</t>
-  </si>
-  <si>
-    <t>19/03/2024</t>
-  </si>
-  <si>
-    <t>19/02/2024</t>
-  </si>
-  <si>
-    <t>17/01/2024</t>
-  </si>
-  <si>
-    <t>19/12/2023</t>
-  </si>
-  <si>
-    <t>17/11/2023</t>
-  </si>
-  <si>
-    <t>18/10/2023</t>
-  </si>
-  <si>
-    <t>19/09/2023</t>
-  </si>
-  <si>
-    <t>17/08/2023</t>
-  </si>
-  <si>
-    <t>19/07/2023</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
   </si>
 </sst>
 </file>
@@ -428,171 +380,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid563022"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid485970"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,67 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>18/09/2024</t>
   </si>
   <si>
     <t>0.006</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>17/01/2024</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
   </si>
 </sst>
 </file>
@@ -380,6 +437,193 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid485970"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid982139"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>16/10/2024</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>18/09/2024</t>
@@ -445,18 +448,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +536,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -544,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +580,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -588,7 +591,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -599,18 +602,18 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -621,7 +624,18 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid982139"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid830965"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>XD Date</t>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t>Gross Dividend</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>0.531</t>
   </si>
   <si>
     <t>19/11/2024</t>
@@ -448,18 +454,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -470,150 +476,150 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -624,18 +630,29 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid830965"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid188796"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,16 +26,19 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
     <t>18/12/2024</t>
   </si>
   <si>
-    <t>0.531</t>
-  </si>
-  <si>
     <t>19/11/2024</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>16/10/2024</t>
@@ -454,205 +457,227 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid188796"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid426258"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid426258"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid738424"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid738424"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid770719"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>19/02/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>17/01/2025</t>
@@ -501,18 +504,18 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -545,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -556,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -578,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -600,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +614,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -622,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -633,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -644,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -655,18 +658,18 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -677,7 +680,18 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid770719"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid745545"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>19/03/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>19/02/2025</t>
@@ -515,18 +518,18 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -548,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -559,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -570,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -581,7 +584,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -592,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -614,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -625,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -636,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -647,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -658,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -669,18 +672,18 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -691,7 +694,18 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid745545"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid925714"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>17/04/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>19/03/2025</t>
@@ -529,18 +532,18 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -584,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -595,7 +598,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +631,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -639,7 +642,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -650,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -661,7 +664,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -672,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -683,18 +686,18 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -705,7 +708,18 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid925714"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid454578"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>19/05/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>17/04/2025</t>
@@ -543,18 +546,18 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -587,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -598,7 +601,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +612,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -620,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -642,7 +645,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -653,7 +656,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -664,7 +667,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +678,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -686,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -697,18 +700,18 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -719,7 +722,18 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid454578"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid44241"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>18/06/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>19/05/2025</t>
@@ -557,18 +560,18 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +615,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +626,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +637,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +681,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +703,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -711,18 +714,18 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +736,18 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid44241"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid337805"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>17/07/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>18/06/2025</t>
@@ -571,18 +574,18 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -637,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -648,7 +651,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -670,7 +673,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +695,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -703,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -714,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -725,18 +728,18 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -747,7 +750,18 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid337805"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid880494"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
     <t>19/08/2025</t>
-  </si>
-  <si>
-    <t>0.005</t>
   </si>
   <si>
     <t>17/07/2025</t>
@@ -585,18 +588,18 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -607,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +621,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -629,7 +632,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -640,7 +643,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -662,7 +665,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -684,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -695,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -706,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -717,7 +720,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -728,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -739,18 +742,18 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -761,7 +764,18 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid880494"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid498170"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
     <t>17/09/2025</t>
   </si>
   <si>
@@ -111,9 +117,6 @@
   </si>
   <si>
     <t>19/07/2023</t>
-  </si>
-  <si>
-    <t>0.007</t>
   </si>
   <si>
     <t>19/06/2023</t>
@@ -478,128 +481,128 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -610,150 +613,150 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -764,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -775,7 +778,18 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid498170"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid718037"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
     <t>17/10/2025</t>
-  </si>
-  <si>
-    <t>0.007</t>
   </si>
   <si>
     <t>17/09/2025</t>
@@ -481,18 +484,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -514,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -558,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -569,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -580,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -591,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -602,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -613,18 +616,18 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -646,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -657,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -668,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -679,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -690,7 +693,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +704,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -712,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -723,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -734,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -745,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -756,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -767,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -789,6 +792,17 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid718037"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid869363"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
     <t>19/11/2025</t>
-  </si>
-  <si>
-    <t>0.007</t>
   </si>
   <si>
     <t>17/10/2025</t>
@@ -495,18 +498,18 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -539,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -550,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -583,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -627,18 +630,18 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +663,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -671,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -682,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -693,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -704,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -726,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -737,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -748,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -759,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -770,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -781,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -803,6 +806,17 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis)_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid869363"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid744707"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,13 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
     <t>17/12/2025</t>
-  </si>
-  <si>
-    <t>0.007</t>
   </si>
   <si>
     <t>19/11/2025</t>
@@ -509,18 +512,18 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +534,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -542,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +589,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -597,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -619,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -630,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -641,18 +644,18 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -663,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -685,7 +688,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -696,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -707,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -718,7 +721,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -740,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -751,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -762,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -773,7 +776,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -784,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -795,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -817,6 +820,17 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
